--- a/public/sample/employee_upload_template.xlsx
+++ b/public/sample/employee_upload_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6th Semester\CC\Work-Nexus-Frontend\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80567DB-2F84-409A-A260-E46E37C2691B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC37D0D5-1539-4B73-8E32-AA90C1AB769A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0F5A0EFA-4246-4879-8164-FAFB7B33B8C7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>test</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>Address</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Manager</t>
   </si>
 </sst>
 </file>
@@ -455,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EEA3F6-5AFC-43AA-9A71-71766624913B}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,9 +482,10 @@
     <col min="9" max="9" width="15.33203125" customWidth="1"/>
     <col min="10" max="10" width="18.109375" customWidth="1"/>
     <col min="11" max="11" width="12.88671875" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -509,8 +519,14 @@
       <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -543,6 +559,12 @@
       </c>
       <c r="K2" t="s">
         <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
